--- a/Resources/StreamLine Web Automator Resources/Skeletons/config.xlsx
+++ b/Resources/StreamLine Web Automator Resources/Skeletons/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\Resources\StreamLine Web Automator Resources\Skeletons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF08241-77B6-4686-817A-82BF506FBD57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31F826E-EFE7-4604-ADCE-B5E27EE9CDD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,16 +105,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Specify whether or not you want to run test files in parallel ('yes' or 'no'). </t>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{D2D436F6-2897-458C-B994-B109315A885D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specify whether or not you want to enable our test management features. This includes test data logged to each of the test files and a granular report in the output file.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{1C050108-4B7E-4486-92E2-E876282833BC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Specify whether or not you want to run test files in parallel ('yes' or 'no').</t>
         </r>
       </text>
     </comment>
@@ -159,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>HomeURL</t>
   </si>
@@ -210,6 +223,9 @@
   </si>
   <si>
     <t>Run Parallel</t>
+  </si>
+  <si>
+    <t>Test Management</t>
   </si>
 </sst>
 </file>
@@ -285,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -296,6 +312,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,7 +534,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -579,10 +596,18 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -597,7 +622,7 @@
     <dataValidation type="list" allowBlank="1" sqref="G2:G3" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Chrome,Safari,Firefox,Internet Explorer,Edge,Headless"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="B3:B5" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000003000000}">

--- a/Resources/StreamLine Web Automator Resources/Skeletons/config.xlsx
+++ b/Resources/StreamLine Web Automator Resources/Skeletons/config.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\Resources\StreamLine Web Automator Resources\Skeletons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31F826E-EFE7-4604-ADCE-B5E27EE9CDD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D33457-589E-4E06-AD6E-20457EB24D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
-    <sheet name="license key" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -135,44 +134,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter your email address here. This is mandatory even for the trial version</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter your license key here. You can leave this blank if you're on the trial version</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>HomeURL</t>
   </si>
@@ -214,12 +177,6 @@
   </si>
   <si>
     <t>320, 700</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>License Key</t>
   </si>
   <si>
     <t>Run Parallel</t>
@@ -232,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -259,12 +216,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -301,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -311,7 +262,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -544,7 +494,7 @@
     <col min="3" max="6" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -561,7 +511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -578,7 +528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -595,23 +545,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>17</v>
+    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>16</v>
+      <c r="A5" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
   </sheetData>
@@ -635,38 +585,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>